--- a/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
+++ b/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14340" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="192">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -556,16 +556,10 @@
     <t>Van der Helstraeten Jean-Jacques</t>
   </si>
   <si>
-    <t>Roque 5 degradeert; Carnières blijft in 3de afdeling</t>
-  </si>
-  <si>
     <t>berekening matchpunten  1 of 0,5 of 0</t>
   </si>
   <si>
     <t>promoveert</t>
-  </si>
-  <si>
-    <t>beslissing NTL:  Anderlecht 4 - Tibechecs  3-0</t>
   </si>
   <si>
     <t>Dworp 2 promoveert dankzij vacante plaats</t>
@@ -589,12 +583,6 @@
     <t xml:space="preserve">Willebroek maakte in R7 waarschijnlijk een opstelllingsfout tegen Dworp 3 </t>
   </si>
   <si>
-    <t>einduitslag: Willebroek kreeg 13,5 en Dworp 8,5.</t>
-  </si>
-  <si>
-    <t>ik weet natuurlijk niet op welk bord. Kan je dat computergestuurd verwoorden?</t>
-  </si>
-  <si>
     <t>Verbruggen Jan</t>
   </si>
   <si>
@@ -605,6 +593,15 @@
   </si>
   <si>
     <t>Pax Walter</t>
+  </si>
+  <si>
+    <t>5G beslissing NTL:  Anderlecht 4 - Tibechecs  3-0</t>
+  </si>
+  <si>
+    <t>5K   einduitslag: Willebroek kreeg 13,5 en Dworp 8,5.</t>
+  </si>
+  <si>
+    <t>3B Roque 5 degradeert; Carnières blijft in 3de afdeling</t>
   </si>
 </sst>
 </file>
@@ -702,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,13 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,7 +1215,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1431,13 +1422,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,11 +1724,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1753,13 +1736,13 @@
     <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -1767,13 +1750,13 @@
         <v>1986</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
@@ -1781,43 +1764,23 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:10">
       <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="J6" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
@@ -1825,47 +1788,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="30"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="D9" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="D10" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="D11" s="70" t="s">
-        <v>188</v>
-      </c>
+    <row r="11" spans="1:10">
+      <c r="C11" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="70"/>
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,7 +1964,7 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -3789,7 +3768,7 @@
   <dimension ref="A1:AQ280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4197,7 +4176,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="41">
         <v>1</v>
@@ -5913,7 +5892,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S19" s="54">
         <f>IF(C19="","",IF(C19&gt;D18,1,IF(C19=D18,0.5,0)))</f>
@@ -6438,7 +6417,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="41">
         <v>1</v>
@@ -7731,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C34" s="41">
         <v>2</v>
@@ -7883,11 +7862,11 @@
       <c r="E35" s="41">
         <v>3</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="40" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="68">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H35" s="41">
         <v>2</v>
@@ -7900,9 +7879,9 @@
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
-      <c r="O35" s="78">
+      <c r="O35" s="42">
         <f t="shared" si="31"/>
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="P35" s="43">
         <f t="shared" si="33"/>
@@ -7912,9 +7891,7 @@
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="R35" s="79">
-        <v>13.5</v>
-      </c>
+      <c r="R35" s="52"/>
       <c r="S35" s="54">
         <f>IF(C35="","",IF(C35&gt;$F32,1,IF(C35=$F32,0.5,0)))</f>
         <v>0.5</v>
@@ -8027,9 +8004,9 @@
         <v>1</v>
       </c>
       <c r="F36" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="68" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="40" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="41">
@@ -8043,9 +8020,9 @@
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="78">
+      <c r="O36" s="42">
         <f t="shared" si="31"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="P36" s="43">
         <f t="shared" si="33"/>
@@ -8055,9 +8032,7 @@
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="R36" s="79">
-        <v>8.5</v>
-      </c>
+      <c r="R36" s="52"/>
       <c r="S36" s="54">
         <f>IF(C36="","",IF(C36&gt;$G32,1,IF(C36=$G32,0.5,0)))</f>
         <v>0</v>
@@ -8158,7 +8133,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C37" s="41">
         <v>0</v>
@@ -15086,7 +15061,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15691,7 +15666,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -15892,7 +15867,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -16248,7 +16223,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18518,7 +18493,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19048,7 +19023,7 @@
         <v>22373</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="10">
@@ -19078,17 +19053,17 @@
         <v>7331</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="19">
         <v>27715</v>
@@ -19108,17 +19083,17 @@
         <v>6998</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="19">
         <v>97453</v>
@@ -19138,17 +19113,17 @@
         <v>22624</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="19">
         <v>33910</v>
@@ -19169,13 +19144,13 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13">
         <v>0.5</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="13">
-        <v>3.5</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">

--- a/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
+++ b/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="-15" windowWidth="14385" windowHeight="12870"/>
+    <workbookView xWindow="14340" yWindow="-15" windowWidth="14385" windowHeight="12870" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="204">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -632,6 +632,12 @@
   </si>
   <si>
     <t>3B Roque 5 degradeert na een degradatieduel tegen Soignies 1 (bron Le Pion F, nummer 20, april 87)</t>
+  </si>
+  <si>
+    <t>17,5?</t>
+  </si>
+  <si>
+    <t>5?</t>
   </si>
 </sst>
 </file>
@@ -1535,14 +1541,14 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1848,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1999,8 +2005,8 @@
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
     </row>
@@ -3919,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD280"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6639,7 +6645,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="95">
+      <c r="O19" s="94">
         <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
@@ -6651,8 +6657,8 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="R19" s="94">
-        <v>17.5</v>
+      <c r="R19" s="97" t="s">
+        <v>202</v>
       </c>
       <c r="S19" s="47">
         <f>IF(C19="","",IF(C19&gt;D18,1,IF(C19=D18,0.5,0)))</f>
@@ -6912,7 +6918,7 @@
         <f>H20+E23</f>
         <v>4</v>
       </c>
-      <c r="AL20" s="97">
+      <c r="AL20" s="96">
         <f>I20+E24</f>
         <v>3</v>
       </c>
@@ -7581,7 +7587,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="95">
+      <c r="O24" s="94">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -7593,8 +7599,8 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="R24" s="94">
-        <v>5</v>
+      <c r="R24" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="S24" s="47">
         <f>IF(C24="","",IF(C24&gt;$I18,1,IF(C24=$I18,0.5,0)))</f>
@@ -7651,7 +7657,7 @@
         <f>D24+I19</f>
         <v>4</v>
       </c>
-      <c r="AH24" s="97">
+      <c r="AH24" s="96">
         <f>E24+I20</f>
         <v>3</v>
       </c>

--- a/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
+++ b/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="-15" windowWidth="14385" windowHeight="12870" activeTab="12"/>
+    <workbookView xWindow="14340" yWindow="-15" windowWidth="14385" windowHeight="12870" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="216">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -394,9 +394,6 @@
     <t>Debaisieux D</t>
   </si>
   <si>
-    <t>4-0 wordt 3-1 wegens opstellingsfout</t>
-  </si>
-  <si>
     <t>Flamion Bruno</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
   </si>
   <si>
     <t>Van der Helstraeten Jean-Jacques</t>
-  </si>
-  <si>
-    <t>berekening matchpunten  1 of 0,5 of 0</t>
   </si>
   <si>
     <t>Dworp 2 promoveert dankzij vacante plaats</t>
@@ -632,6 +626,48 @@
   </si>
   <si>
     <t>3B Roque 5 degradeert na een degradatieduel tegen Soignies 1 (bron Le Pion F, nummer 20, april 87)</t>
+  </si>
+  <si>
+    <t>Van Nerom Luc</t>
+  </si>
+  <si>
+    <t>dubbele matchpunten: consistent met 85-86, 87-88 en Le Pion F</t>
+  </si>
+  <si>
+    <t>uitslag 4-0, bron = voorlopige uitslagen in le pion f</t>
+  </si>
+  <si>
+    <t>uitslag 4-0, bron = individuele uitslagen in het archief van Eddy</t>
+  </si>
+  <si>
+    <t>4-0 wordt 3-1 wegens opstellingsfout, bron = archief van Eddy</t>
+  </si>
+  <si>
+    <t>(Le pion f vermeldt het resultaat van de testmatch tussen Soignies 1 en Roque 5 in reeks 3B; desalniettemin:)</t>
+  </si>
+  <si>
+    <t>Dworp 2 heeft op dat moment (dus na de competitie) 17,5 punten en Tibechecs 2 heeft 5 punten.</t>
+  </si>
+  <si>
+    <t>Arbitraire beslissing op 11/8/2017:  we volgen het archief van Eddy.</t>
+  </si>
+  <si>
+    <t>De beslissing van de NTL over een opstellingsfout dateert vermoedelijk van na de publicatie van le pion f in april 1987.</t>
+  </si>
+  <si>
+    <t>Blijft de vraag: wat was de opstellingsfout dan wel?</t>
+  </si>
+  <si>
+    <t>Luc Van Nerom was in orde met het lidgeld want</t>
+  </si>
+  <si>
+    <t>hij was actief van 1984 tot 1991, in 1994 kwam hij terug en werd Penningmeester.</t>
+  </si>
+  <si>
+    <t>Qua elopunten hoort hij thuis op het vierde bord</t>
+  </si>
+  <si>
+    <t>Maar vergat Dworp hem op de spelerslijst te zetten??</t>
   </si>
   <si>
     <t>17,5?</t>
@@ -1465,12 +1501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1535,20 +1565,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="10" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1855,7 +1891,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1872,85 +1908,88 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="67" t="s">
-        <v>169</v>
+      <c r="A2" s="65" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="69">
+      <c r="A3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="67">
         <v>1986</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
       <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="68">
         <v>1987</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="72"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="74"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="76"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="79">
-        <v>0</v>
+      <c r="B11" s="77">
+        <v>1</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
@@ -1958,23 +1997,23 @@
       <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="80">
-        <v>0</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="A12" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="14" spans="1:11">
       <c r="D14" s="62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
@@ -1986,7 +2025,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="D15" s="62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
@@ -1998,15 +2037,15 @@
     </row>
     <row r="17" spans="4:13">
       <c r="D17" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
     </row>
@@ -2058,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2068,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2126,7 +2165,7 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -2154,7 +2193,7 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -2182,7 +2221,7 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -2210,7 +2249,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -2238,7 +2277,7 @@
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="18"/>
     </row>
@@ -2266,7 +2305,7 @@
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -3925,9 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3955,14 +3992,14 @@
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="81" t="s">
+      <c r="S2" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF2" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS2" s="79" t="s">
         <v>174</v>
-      </c>
-      <c r="AF2" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS2" s="81" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
@@ -4047,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>37</v>
@@ -4087,7 +4124,7 @@
       </c>
       <c r="P4" s="36">
         <f>IF(Info!B$10=0,0,SUM(S4:AD4))+IF(Info!B$11=0,0,2*SUM(S4:AD4))+IF(Info!B$12=0,0,SUM(AS4:BD4))</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="36">
         <f t="shared" ref="Q4:Q15" si="2">COUNT(C4:N4)</f>
@@ -4188,50 +4225,50 @@
         <f>N4+C15</f>
         <v>0</v>
       </c>
-      <c r="AS4" s="83" t="s">
+      <c r="AS4" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AT4" s="84">
+      <c r="AT4" s="82">
         <f t="shared" ref="AT4:BD9" si="3">IF(T4="","",IF(D4=0,0,1+2*T4))</f>
         <v>1</v>
       </c>
-      <c r="AU4" s="84">
+      <c r="AU4" s="82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AV4" s="84">
+      <c r="AV4" s="82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AW4" s="84">
+      <c r="AW4" s="82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AX4" s="84">
+      <c r="AX4" s="82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AY4" s="84">
+      <c r="AY4" s="82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AZ4" s="84">
+      <c r="AZ4" s="82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BA4" s="84">
+      <c r="BA4" s="82">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="BB4" s="84">
+      <c r="BB4" s="82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BC4" s="84" t="str">
+      <c r="BC4" s="82" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BD4" s="85" t="str">
+      <c r="BD4" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4241,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="34">
         <v>3.5</v>
@@ -4281,7 +4318,7 @@
       </c>
       <c r="P5" s="36">
         <f>IF(Info!B$10=0,0,SUM(S5:AD5))+IF(Info!B$11=0,0,2*SUM(S5:AD5))+IF(Info!B$12=0,0,SUM(AS5:BD5))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="36">
         <f t="shared" si="2"/>
@@ -4382,50 +4419,50 @@
         <f>N5+D15</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="86">
+      <c r="AS5" s="84">
         <f t="shared" ref="AS5:AX15" si="4">IF(S5="","",IF(C5=0,0,1+2*S5))</f>
         <v>3</v>
       </c>
-      <c r="AT5" s="87" t="s">
+      <c r="AT5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AU5" s="87">
+      <c r="AU5" s="85">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AV5" s="87">
+      <c r="AV5" s="85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AW5" s="87">
+      <c r="AW5" s="85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AX5" s="87">
+      <c r="AX5" s="85">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AY5" s="87">
+      <c r="AY5" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AZ5" s="87">
+      <c r="AZ5" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BA5" s="87">
+      <c r="BA5" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BB5" s="87">
+      <c r="BB5" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BC5" s="87" t="str">
+      <c r="BC5" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BD5" s="88" t="str">
+      <c r="BD5" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4435,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" s="34">
         <v>1</v>
@@ -4475,7 +4512,7 @@
       </c>
       <c r="P6" s="36">
         <f>IF(Info!B$10=0,0,SUM(S6:AD6))+IF(Info!B$11=0,0,2*SUM(S6:AD6))+IF(Info!B$12=0,0,SUM(AS6:BD6))</f>
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="36">
         <f t="shared" si="2"/>
@@ -4576,50 +4613,50 @@
         <f>N6+E15</f>
         <v>0</v>
       </c>
-      <c r="AS6" s="86">
+      <c r="AS6" s="84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT6" s="87">
+      <c r="AT6" s="85">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AU6" s="87" t="s">
+      <c r="AU6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AV6" s="87">
+      <c r="AV6" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AW6" s="87">
+      <c r="AW6" s="85">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AX6" s="87">
+      <c r="AX6" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AY6" s="87">
+      <c r="AY6" s="85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AZ6" s="87">
+      <c r="AZ6" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BA6" s="87">
+      <c r="BA6" s="85">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="BB6" s="87">
+      <c r="BB6" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BC6" s="87" t="str">
+      <c r="BC6" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BD6" s="88" t="str">
+      <c r="BD6" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4629,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="34">
         <v>2.5</v>
@@ -4669,7 +4706,7 @@
       </c>
       <c r="P7" s="36">
         <f>IF(Info!B$10=0,0,SUM(S7:AD7))+IF(Info!B$11=0,0,2*SUM(S7:AD7))+IF(Info!B$12=0,0,SUM(AS7:BD7))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="36">
         <f t="shared" si="2"/>
@@ -4770,50 +4807,50 @@
         <f>N7+F15</f>
         <v>0</v>
       </c>
-      <c r="AS7" s="86">
+      <c r="AS7" s="84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT7" s="87">
+      <c r="AT7" s="85">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AU7" s="87">
+      <c r="AU7" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AV7" s="87" t="s">
+      <c r="AV7" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AW7" s="87">
+      <c r="AW7" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AX7" s="87">
+      <c r="AX7" s="85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AY7" s="87">
+      <c r="AY7" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AZ7" s="87">
+      <c r="AZ7" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BA7" s="87">
+      <c r="BA7" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BB7" s="87">
+      <c r="BB7" s="85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="BC7" s="87" t="str">
+      <c r="BC7" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BD7" s="88" t="str">
+      <c r="BD7" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4823,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" s="34">
         <v>1.5</v>
@@ -4863,7 +4900,7 @@
       </c>
       <c r="P8" s="36">
         <f>IF(Info!B$10=0,0,SUM(S8:AD8))+IF(Info!B$11=0,0,2*SUM(S8:AD8))+IF(Info!B$12=0,0,SUM(AS8:BD8))</f>
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="36">
         <f t="shared" si="2"/>
@@ -4964,50 +5001,50 @@
         <f>N8+G15</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="86">
+      <c r="AS8" s="84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT8" s="87">
+      <c r="AT8" s="85">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AU8" s="87">
+      <c r="AU8" s="85">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AV8" s="87">
+      <c r="AV8" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AW8" s="87" t="s">
+      <c r="AW8" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AX8" s="87">
+      <c r="AX8" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AY8" s="87">
+      <c r="AY8" s="85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AZ8" s="87">
+      <c r="AZ8" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BA8" s="87">
+      <c r="BA8" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BB8" s="87">
+      <c r="BB8" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BC8" s="87" t="str">
+      <c r="BC8" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BD8" s="88" t="str">
+      <c r="BD8" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5017,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="34">
         <v>1.5</v>
@@ -5057,7 +5094,7 @@
       </c>
       <c r="P9" s="36">
         <f>IF(Info!B$10=0,0,SUM(S9:AD9))+IF(Info!B$11=0,0,2*SUM(S9:AD9))+IF(Info!B$12=0,0,SUM(AS9:BD9))</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="36">
         <f t="shared" si="2"/>
@@ -5158,50 +5195,50 @@
         <f>N9+H15</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="86">
+      <c r="AS9" s="84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT9" s="87">
+      <c r="AT9" s="85">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AU9" s="87">
+      <c r="AU9" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AV9" s="87">
+      <c r="AV9" s="85">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AW9" s="87">
+      <c r="AW9" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AX9" s="87" t="s">
+      <c r="AX9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AY9" s="87">
+      <c r="AY9" s="85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AZ9" s="87">
+      <c r="AZ9" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BA9" s="87">
+      <c r="BA9" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BB9" s="87">
+      <c r="BB9" s="85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BC9" s="87" t="str">
+      <c r="BC9" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BD9" s="88" t="str">
+      <c r="BD9" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5211,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" s="34">
         <v>1</v>
@@ -5251,7 +5288,7 @@
       </c>
       <c r="P10" s="36">
         <f>IF(Info!B$10=0,0,SUM(S10:AD10))+IF(Info!B$11=0,0,2*SUM(S10:AD10))+IF(Info!B$12=0,0,SUM(AS10:BD10))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="36">
         <f t="shared" si="2"/>
@@ -5352,50 +5389,50 @@
         <f>N10+I15</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="86">
+      <c r="AS10" s="84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT10" s="87">
+      <c r="AT10" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AU10" s="87">
+      <c r="AU10" s="85">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AV10" s="87">
+      <c r="AV10" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AW10" s="87">
+      <c r="AW10" s="85">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AX10" s="87">
+      <c r="AX10" s="85">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AY10" s="87" t="s">
+      <c r="AY10" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AZ10" s="87">
+      <c r="AZ10" s="85">
         <f>IF(Z10="","",IF(J10=0,0,1+2*Z10))</f>
         <v>1</v>
       </c>
-      <c r="BA10" s="87">
+      <c r="BA10" s="85">
         <f>IF(AA10="","",IF(K10=0,0,1+2*AA10))</f>
         <v>1</v>
       </c>
-      <c r="BB10" s="87">
+      <c r="BB10" s="85">
         <f>IF(AB10="","",IF(L10=0,0,1+2*AB10))</f>
         <v>3</v>
       </c>
-      <c r="BC10" s="87" t="str">
+      <c r="BC10" s="85" t="str">
         <f>IF(AC10="","",IF(M10=0,0,1+2*AC10))</f>
         <v/>
       </c>
-      <c r="BD10" s="88" t="str">
+      <c r="BD10" s="86" t="str">
         <f>IF(AD10="","",IF(N10=0,0,1+2*AD10))</f>
         <v/>
       </c>
@@ -5405,7 +5442,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="34">
         <v>1</v>
@@ -5445,7 +5482,7 @@
       </c>
       <c r="P11" s="36">
         <f>IF(Info!B$10=0,0,SUM(S11:AD11))+IF(Info!B$11=0,0,2*SUM(S11:AD11))+IF(Info!B$12=0,0,SUM(AS11:BD11))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" si="2"/>
@@ -5546,50 +5583,50 @@
         <f>N11+J15</f>
         <v>0</v>
       </c>
-      <c r="AS11" s="86">
+      <c r="AS11" s="84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT11" s="87">
+      <c r="AT11" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AU11" s="87">
+      <c r="AU11" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AV11" s="87">
+      <c r="AV11" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AW11" s="87">
+      <c r="AW11" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AX11" s="87">
+      <c r="AX11" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AY11" s="87">
+      <c r="AY11" s="85">
         <f>IF(Y11="","",IF(I11=0,0,1+2*Y11))</f>
         <v>3</v>
       </c>
-      <c r="AZ11" s="87" t="s">
+      <c r="AZ11" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BA11" s="87">
+      <c r="BA11" s="85">
         <f>IF(AA11="","",IF(K11=0,0,1+2*AA11))</f>
         <v>3</v>
       </c>
-      <c r="BB11" s="87">
+      <c r="BB11" s="85">
         <f>IF(AB11="","",IF(L11=0,0,1+2*AB11))</f>
         <v>3</v>
       </c>
-      <c r="BC11" s="87" t="str">
+      <c r="BC11" s="85" t="str">
         <f>IF(AC11="","",IF(M11=0,0,1+2*AC11))</f>
         <v/>
       </c>
-      <c r="BD11" s="88" t="str">
+      <c r="BD11" s="86" t="str">
         <f>IF(AD11="","",IF(N11=0,0,1+2*AD11))</f>
         <v/>
       </c>
@@ -5599,7 +5636,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="34">
         <v>3</v>
@@ -5639,7 +5676,7 @@
       </c>
       <c r="P12" s="36">
         <f>IF(Info!B$10=0,0,SUM(S12:AD12))+IF(Info!B$11=0,0,2*SUM(S12:AD12))+IF(Info!B$12=0,0,SUM(AS12:BD12))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="2"/>
@@ -5740,50 +5777,50 @@
         <f>N12+K15</f>
         <v>0</v>
       </c>
-      <c r="AS12" s="86">
+      <c r="AS12" s="84">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AT12" s="87">
+      <c r="AT12" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AU12" s="87">
+      <c r="AU12" s="85">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AV12" s="87">
+      <c r="AV12" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AW12" s="87">
+      <c r="AW12" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AX12" s="87">
+      <c r="AX12" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AY12" s="87">
+      <c r="AY12" s="85">
         <f>IF(Y12="","",IF(I12=0,0,1+2*Y12))</f>
         <v>3</v>
       </c>
-      <c r="AZ12" s="87">
+      <c r="AZ12" s="85">
         <f>IF(Z12="","",IF(J12=0,0,1+2*Z12))</f>
         <v>1</v>
       </c>
-      <c r="BA12" s="87" t="s">
+      <c r="BA12" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BB12" s="87">
+      <c r="BB12" s="85">
         <f>IF(AB12="","",IF(L12=0,0,1+2*AB12))</f>
         <v>3</v>
       </c>
-      <c r="BC12" s="87" t="str">
+      <c r="BC12" s="85" t="str">
         <f>IF(AC12="","",IF(M12=0,0,1+2*AC12))</f>
         <v/>
       </c>
-      <c r="BD12" s="88" t="str">
+      <c r="BD12" s="86" t="str">
         <f>IF(AD12="","",IF(N12=0,0,1+2*AD12))</f>
         <v/>
       </c>
@@ -5793,7 +5830,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" s="34">
         <v>1</v>
@@ -5833,7 +5870,7 @@
       </c>
       <c r="P13" s="36">
         <f>IF(Info!B$10=0,0,SUM(S13:AD13))+IF(Info!B$11=0,0,2*SUM(S13:AD13))+IF(Info!B$12=0,0,SUM(AS13:BD13))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="2"/>
@@ -5934,50 +5971,50 @@
         <f>N13+L15</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="86">
+      <c r="AS13" s="84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT13" s="87">
+      <c r="AT13" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AU13" s="87">
+      <c r="AU13" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AV13" s="87">
+      <c r="AV13" s="85">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AW13" s="87">
+      <c r="AW13" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AX13" s="87">
+      <c r="AX13" s="85">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AY13" s="87">
+      <c r="AY13" s="85">
         <f>IF(Y13="","",IF(I13=0,0,1+2*Y13))</f>
         <v>1</v>
       </c>
-      <c r="AZ13" s="87">
+      <c r="AZ13" s="85">
         <f>IF(Z13="","",IF(J13=0,0,1+2*Z13))</f>
         <v>1</v>
       </c>
-      <c r="BA13" s="87">
+      <c r="BA13" s="85">
         <f>IF(AA13="","",IF(K13=0,0,1+2*AA13))</f>
         <v>1</v>
       </c>
-      <c r="BB13" s="87" t="s">
+      <c r="BB13" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BC13" s="87" t="str">
+      <c r="BC13" s="85" t="str">
         <f>IF(AC13="","",IF(M13=0,0,1+2*AC13))</f>
         <v/>
       </c>
-      <c r="BD13" s="88" t="str">
+      <c r="BD13" s="86" t="str">
         <f>IF(AD13="","",IF(N13=0,0,1+2*AD13))</f>
         <v/>
       </c>
@@ -6108,50 +6145,50 @@
         <f>N14+M15</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="86" t="str">
+      <c r="AS14" s="84" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AT14" s="87" t="str">
+      <c r="AT14" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU14" s="87" t="str">
+      <c r="AU14" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AV14" s="87" t="str">
+      <c r="AV14" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AW14" s="87" t="str">
+      <c r="AW14" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AX14" s="87" t="str">
+      <c r="AX14" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AY14" s="87" t="str">
+      <c r="AY14" s="85" t="str">
         <f>IF(Y14="","",IF(I14=0,0,1+2*Y14))</f>
         <v/>
       </c>
-      <c r="AZ14" s="87" t="str">
+      <c r="AZ14" s="85" t="str">
         <f>IF(Z14="","",IF(J14=0,0,1+2*Z14))</f>
         <v/>
       </c>
-      <c r="BA14" s="87" t="str">
+      <c r="BA14" s="85" t="str">
         <f>IF(AA14="","",IF(K14=0,0,1+2*AA14))</f>
         <v/>
       </c>
-      <c r="BB14" s="87" t="str">
+      <c r="BB14" s="85" t="str">
         <f>IF(AB14="","",IF(L14=0,0,1+2*AB14))</f>
         <v/>
       </c>
-      <c r="BC14" s="87" t="s">
+      <c r="BC14" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD14" s="88" t="str">
+      <c r="BD14" s="86" t="str">
         <f>IF(AD14="","",IF(N14=0,0,1+2*AD14))</f>
         <v/>
       </c>
@@ -6282,51 +6319,51 @@
       <c r="AQ15" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AS15" s="89" t="str">
+      <c r="AS15" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AT15" s="90" t="str">
+      <c r="AT15" s="88" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU15" s="90" t="str">
+      <c r="AU15" s="88" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AV15" s="90" t="str">
+      <c r="AV15" s="88" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AW15" s="90" t="str">
+      <c r="AW15" s="88" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AX15" s="90" t="str">
+      <c r="AX15" s="88" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AY15" s="90" t="str">
+      <c r="AY15" s="88" t="str">
         <f>IF(Y15="","",IF(I15=0,0,1+2*Y15))</f>
         <v/>
       </c>
-      <c r="AZ15" s="90" t="str">
+      <c r="AZ15" s="88" t="str">
         <f>IF(Z15="","",IF(J15=0,0,1+2*Z15))</f>
         <v/>
       </c>
-      <c r="BA15" s="90" t="str">
+      <c r="BA15" s="88" t="str">
         <f>IF(AA15="","",IF(K15=0,0,1+2*AA15))</f>
         <v/>
       </c>
-      <c r="BB15" s="90" t="str">
+      <c r="BB15" s="88" t="str">
         <f>IF(AB15="","",IF(L15=0,0,1+2*AB15))</f>
         <v/>
       </c>
-      <c r="BC15" s="90" t="str">
+      <c r="BC15" s="88" t="str">
         <f>IF(AC15="","",IF(M15=0,0,1+2*AC15))</f>
         <v/>
       </c>
-      <c r="BD15" s="91" t="s">
+      <c r="BD15" s="89" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6429,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>37</v>
@@ -6463,7 +6500,7 @@
       </c>
       <c r="P18" s="36">
         <f>IF(Info!B$10=0,0,SUM(S18:AD18))+IF(Info!B$11=0,0,2*SUM(S18:AD18))+IF(Info!B$12=0,0,SUM(AS18:BD18))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="36">
         <f t="shared" ref="Q18:Q29" si="7">COUNT(C18:N18)</f>
@@ -6564,50 +6601,50 @@
         <f>N18+C29</f>
         <v>0</v>
       </c>
-      <c r="AS18" s="83" t="s">
+      <c r="AS18" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AT18" s="84">
+      <c r="AT18" s="82">
         <f t="shared" ref="AT18:BD23" si="8">IF(T18="","",IF(D18=0,0,1+2*T18))</f>
         <v>3</v>
       </c>
-      <c r="AU18" s="84">
+      <c r="AU18" s="82">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AV18" s="84">
+      <c r="AV18" s="82">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AW18" s="84">
+      <c r="AW18" s="82">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AX18" s="84">
+      <c r="AX18" s="82">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AY18" s="84">
+      <c r="AY18" s="82">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AZ18" s="84" t="str">
+      <c r="AZ18" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BA18" s="84" t="str">
+      <c r="BA18" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BB18" s="84" t="str">
+      <c r="BB18" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BC18" s="84" t="str">
+      <c r="BC18" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD18" s="85" t="str">
+      <c r="BD18" s="83" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6617,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="34">
         <v>1</v>
@@ -6631,13 +6668,13 @@
       <c r="F19" s="34">
         <v>2.5</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="90">
         <v>4</v>
       </c>
       <c r="H19" s="34">
         <v>3.5</v>
       </c>
-      <c r="I19" s="92">
+      <c r="I19" s="95">
         <v>3</v>
       </c>
       <c r="J19" s="34"/>
@@ -6645,20 +6682,20 @@
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="94">
+      <c r="O19" s="96">
         <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="P19" s="36">
         <f>IF(Info!B$10=0,0,SUM(S19:AD19))+IF(Info!B$11=0,0,2*SUM(S19:AD19))+IF(Info!B$12=0,0,SUM(AS19:BD19))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="36">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R19" s="97" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="S19" s="47">
         <f>IF(C19="","",IF(C19&gt;D18,1,IF(C19=D18,0.5,0)))</f>
@@ -6754,50 +6791,50 @@
         <f>N19+D29</f>
         <v>0</v>
       </c>
-      <c r="AS19" s="86">
+      <c r="AS19" s="84">
         <f t="shared" ref="AS19:AX29" si="9">IF(S19="","",IF(C19=0,0,1+2*S19))</f>
         <v>1</v>
       </c>
-      <c r="AT19" s="87" t="s">
+      <c r="AT19" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AU19" s="87">
+      <c r="AU19" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AV19" s="87">
+      <c r="AV19" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AW19" s="87">
+      <c r="AW19" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AX19" s="87">
+      <c r="AX19" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AY19" s="87">
+      <c r="AY19" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AZ19" s="87" t="str">
+      <c r="AZ19" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BA19" s="87" t="str">
+      <c r="BA19" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BB19" s="87" t="str">
+      <c r="BB19" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BC19" s="87" t="str">
+      <c r="BC19" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD19" s="88" t="str">
+      <c r="BD19" s="86" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6807,7 +6844,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" s="34">
         <v>0.5</v>
@@ -6827,7 +6864,7 @@
       <c r="H20" s="34">
         <v>3.5</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="90">
         <v>3</v>
       </c>
       <c r="J20" s="34"/>
@@ -6841,7 +6878,7 @@
       </c>
       <c r="P20" s="36">
         <f>IF(Info!B$10=0,0,SUM(S20:AD20))+IF(Info!B$11=0,0,2*SUM(S20:AD20))+IF(Info!B$12=0,0,SUM(AS20:BD20))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="36">
         <f t="shared" si="7"/>
@@ -6918,7 +6955,7 @@
         <f>H20+E23</f>
         <v>4</v>
       </c>
-      <c r="AL20" s="96">
+      <c r="AL20" s="92">
         <f>I20+E24</f>
         <v>3</v>
       </c>
@@ -6942,50 +6979,50 @@
         <f>N20+E29</f>
         <v>0</v>
       </c>
-      <c r="AS20" s="86">
+      <c r="AS20" s="84">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AT20" s="87">
+      <c r="AT20" s="85">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AU20" s="87" t="s">
+      <c r="AU20" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AV20" s="87">
+      <c r="AV20" s="85">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AW20" s="87">
+      <c r="AW20" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AX20" s="87">
+      <c r="AX20" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AY20" s="87">
+      <c r="AY20" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AZ20" s="87" t="str">
+      <c r="AZ20" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BA20" s="87" t="str">
+      <c r="BA20" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BB20" s="87" t="str">
+      <c r="BB20" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BC20" s="87" t="str">
+      <c r="BC20" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD20" s="88" t="str">
+      <c r="BD20" s="86" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6995,7 +7032,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="34">
         <v>0.5</v>
@@ -7012,7 +7049,7 @@
       <c r="G21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="90">
         <v>2</v>
       </c>
       <c r="I21" s="34">
@@ -7029,7 +7066,7 @@
       </c>
       <c r="P21" s="36">
         <f>IF(Info!B$10=0,0,SUM(S21:AD21))+IF(Info!B$11=0,0,2*SUM(S21:AD21))+IF(Info!B$12=0,0,SUM(AS21:BD21))</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="36">
         <f t="shared" si="7"/>
@@ -7130,50 +7167,50 @@
         <f>N21+F29</f>
         <v>0</v>
       </c>
-      <c r="AS21" s="86">
+      <c r="AS21" s="84">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AT21" s="87">
+      <c r="AT21" s="85">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AU21" s="87">
+      <c r="AU21" s="85">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AV21" s="87" t="s">
+      <c r="AV21" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AW21" s="87">
+      <c r="AW21" s="85">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX21" s="87">
+      <c r="AX21" s="85">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AY21" s="87">
+      <c r="AY21" s="85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AZ21" s="87" t="str">
+      <c r="AZ21" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BA21" s="87" t="str">
+      <c r="BA21" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BB21" s="87" t="str">
+      <c r="BB21" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BC21" s="87" t="str">
+      <c r="BC21" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD21" s="88" t="str">
+      <c r="BD21" s="86" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7183,12 +7220,12 @@
         <v>5</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="34">
         <v>1</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="90">
         <v>0</v>
       </c>
       <c r="E22" s="34">
@@ -7217,7 +7254,7 @@
       </c>
       <c r="P22" s="36">
         <f>IF(Info!B$10=0,0,SUM(S22:AD22))+IF(Info!B$11=0,0,2*SUM(S22:AD22))+IF(Info!B$12=0,0,SUM(AS22:BD22))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="36">
         <f t="shared" si="7"/>
@@ -7318,50 +7355,50 @@
         <f>N22+G29</f>
         <v>0</v>
       </c>
-      <c r="AS22" s="86">
+      <c r="AS22" s="84">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AT22" s="87">
+      <c r="AT22" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="87">
+      <c r="AU22" s="85">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AV22" s="87">
+      <c r="AV22" s="85">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AW22" s="87" t="s">
+      <c r="AW22" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AX22" s="87">
+      <c r="AX22" s="85">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AY22" s="87">
+      <c r="AY22" s="85">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AZ22" s="87" t="str">
+      <c r="AZ22" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BA22" s="87" t="str">
+      <c r="BA22" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BB22" s="87" t="str">
+      <c r="BB22" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BC22" s="87" t="str">
+      <c r="BC22" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD22" s="88" t="str">
+      <c r="BD22" s="86" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7371,7 +7408,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="34">
         <v>1</v>
@@ -7382,7 +7419,7 @@
       <c r="E23" s="34">
         <v>0.5</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="90">
         <v>2</v>
       </c>
       <c r="G23" s="34">
@@ -7405,7 +7442,7 @@
       </c>
       <c r="P23" s="36">
         <f>IF(Info!B$10=0,0,SUM(S23:AD23))+IF(Info!B$11=0,0,2*SUM(S23:AD23))+IF(Info!B$12=0,0,SUM(AS23:BD23))</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="36">
         <f t="shared" si="7"/>
@@ -7506,50 +7543,50 @@
         <f>N23+H29</f>
         <v>0</v>
       </c>
-      <c r="AS23" s="86">
+      <c r="AS23" s="84">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AT23" s="87">
+      <c r="AT23" s="85">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AU23" s="87">
+      <c r="AU23" s="85">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AV23" s="87">
+      <c r="AV23" s="85">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AW23" s="87">
+      <c r="AW23" s="85">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AX23" s="87" t="s">
+      <c r="AX23" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AY23" s="87">
+      <c r="AY23" s="85">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AZ23" s="87" t="str">
+      <c r="AZ23" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BA23" s="87" t="str">
+      <c r="BA23" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BB23" s="87" t="str">
+      <c r="BB23" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BC23" s="87" t="str">
+      <c r="BC23" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD23" s="88" t="str">
+      <c r="BD23" s="86" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7559,15 +7596,15 @@
         <v>7</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="34">
         <v>0</v>
       </c>
-      <c r="D24" s="92">
-        <v>1</v>
-      </c>
-      <c r="E24" s="93">
+      <c r="D24" s="95">
+        <v>1</v>
+      </c>
+      <c r="E24" s="90">
         <v>0</v>
       </c>
       <c r="F24" s="34">
@@ -7587,20 +7624,20 @@
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="94">
+      <c r="O24" s="96">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P24" s="36">
         <f>IF(Info!B$10=0,0,SUM(S24:AD24))+IF(Info!B$11=0,0,2*SUM(S24:AD24))+IF(Info!B$12=0,0,SUM(AS24:BD24))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="36">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R24" s="97" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="S24" s="47">
         <f>IF(C24="","",IF(C24&gt;$I18,1,IF(C24=$I18,0.5,0)))</f>
@@ -7657,7 +7694,7 @@
         <f>D24+I19</f>
         <v>4</v>
       </c>
-      <c r="AH24" s="96">
+      <c r="AH24" s="92">
         <f>E24+I20</f>
         <v>3</v>
       </c>
@@ -7696,50 +7733,50 @@
         <f>N24+I29</f>
         <v>0</v>
       </c>
-      <c r="AS24" s="86">
+      <c r="AS24" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AT24" s="87">
+      <c r="AT24" s="85">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AU24" s="87">
+      <c r="AU24" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV24" s="87">
+      <c r="AV24" s="85">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AW24" s="87">
+      <c r="AW24" s="85">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AX24" s="87">
+      <c r="AX24" s="85">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AY24" s="87" t="s">
+      <c r="AY24" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AZ24" s="87" t="str">
+      <c r="AZ24" s="85" t="str">
         <f>IF(Z24="","",IF(J24=0,0,1+2*Z24))</f>
         <v/>
       </c>
-      <c r="BA24" s="87" t="str">
+      <c r="BA24" s="85" t="str">
         <f>IF(AA24="","",IF(K24=0,0,1+2*AA24))</f>
         <v/>
       </c>
-      <c r="BB24" s="87" t="str">
+      <c r="BB24" s="85" t="str">
         <f>IF(AB24="","",IF(L24=0,0,1+2*AB24))</f>
         <v/>
       </c>
-      <c r="BC24" s="87" t="str">
+      <c r="BC24" s="85" t="str">
         <f>IF(AC24="","",IF(M24=0,0,1+2*AC24))</f>
         <v/>
       </c>
-      <c r="BD24" s="88" t="str">
+      <c r="BD24" s="86" t="str">
         <f>IF(AD24="","",IF(N24=0,0,1+2*AD24))</f>
         <v/>
       </c>
@@ -7870,50 +7907,50 @@
         <f>N25+J29</f>
         <v>0</v>
       </c>
-      <c r="AS25" s="86" t="str">
+      <c r="AS25" s="84" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT25" s="87" t="str">
+      <c r="AT25" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AU25" s="87" t="str">
+      <c r="AU25" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AV25" s="87" t="str">
+      <c r="AV25" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AW25" s="87" t="str">
+      <c r="AW25" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AX25" s="87" t="str">
+      <c r="AX25" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AY25" s="87" t="str">
+      <c r="AY25" s="85" t="str">
         <f>IF(Y25="","",IF(I25=0,0,1+2*Y25))</f>
         <v/>
       </c>
-      <c r="AZ25" s="87" t="s">
+      <c r="AZ25" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BA25" s="87" t="str">
+      <c r="BA25" s="85" t="str">
         <f>IF(AA25="","",IF(K25=0,0,1+2*AA25))</f>
         <v/>
       </c>
-      <c r="BB25" s="87" t="str">
+      <c r="BB25" s="85" t="str">
         <f>IF(AB25="","",IF(L25=0,0,1+2*AB25))</f>
         <v/>
       </c>
-      <c r="BC25" s="87" t="str">
+      <c r="BC25" s="85" t="str">
         <f>IF(AC25="","",IF(M25=0,0,1+2*AC25))</f>
         <v/>
       </c>
-      <c r="BD25" s="88" t="str">
+      <c r="BD25" s="86" t="str">
         <f>IF(AD25="","",IF(N25=0,0,1+2*AD25))</f>
         <v/>
       </c>
@@ -8044,50 +8081,50 @@
         <f>N26+K29</f>
         <v>0</v>
       </c>
-      <c r="AS26" s="86" t="str">
+      <c r="AS26" s="84" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT26" s="87" t="str">
+      <c r="AT26" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AU26" s="87" t="str">
+      <c r="AU26" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AV26" s="87" t="str">
+      <c r="AV26" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AW26" s="87" t="str">
+      <c r="AW26" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AX26" s="87" t="str">
+      <c r="AX26" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AY26" s="87" t="str">
+      <c r="AY26" s="85" t="str">
         <f>IF(Y26="","",IF(I26=0,0,1+2*Y26))</f>
         <v/>
       </c>
-      <c r="AZ26" s="87" t="str">
+      <c r="AZ26" s="85" t="str">
         <f>IF(Z26="","",IF(J26=0,0,1+2*Z26))</f>
         <v/>
       </c>
-      <c r="BA26" s="87" t="s">
+      <c r="BA26" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BB26" s="87" t="str">
+      <c r="BB26" s="85" t="str">
         <f>IF(AB26="","",IF(L26=0,0,1+2*AB26))</f>
         <v/>
       </c>
-      <c r="BC26" s="87" t="str">
+      <c r="BC26" s="85" t="str">
         <f>IF(AC26="","",IF(M26=0,0,1+2*AC26))</f>
         <v/>
       </c>
-      <c r="BD26" s="88" t="str">
+      <c r="BD26" s="86" t="str">
         <f>IF(AD26="","",IF(N26=0,0,1+2*AD26))</f>
         <v/>
       </c>
@@ -8218,50 +8255,50 @@
         <f>N27+L29</f>
         <v>0</v>
       </c>
-      <c r="AS27" s="86" t="str">
+      <c r="AS27" s="84" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT27" s="87" t="str">
+      <c r="AT27" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AU27" s="87" t="str">
+      <c r="AU27" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AV27" s="87" t="str">
+      <c r="AV27" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AW27" s="87" t="str">
+      <c r="AW27" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AX27" s="87" t="str">
+      <c r="AX27" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AY27" s="87" t="str">
+      <c r="AY27" s="85" t="str">
         <f>IF(Y27="","",IF(I27=0,0,1+2*Y27))</f>
         <v/>
       </c>
-      <c r="AZ27" s="87" t="str">
+      <c r="AZ27" s="85" t="str">
         <f>IF(Z27="","",IF(J27=0,0,1+2*Z27))</f>
         <v/>
       </c>
-      <c r="BA27" s="87" t="str">
+      <c r="BA27" s="85" t="str">
         <f>IF(AA27="","",IF(K27=0,0,1+2*AA27))</f>
         <v/>
       </c>
-      <c r="BB27" s="87" t="s">
+      <c r="BB27" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BC27" s="87" t="str">
+      <c r="BC27" s="85" t="str">
         <f>IF(AC27="","",IF(M27=0,0,1+2*AC27))</f>
         <v/>
       </c>
-      <c r="BD27" s="88" t="str">
+      <c r="BD27" s="86" t="str">
         <f>IF(AD27="","",IF(N27=0,0,1+2*AD27))</f>
         <v/>
       </c>
@@ -8392,50 +8429,50 @@
         <f>N28+M29</f>
         <v>0</v>
       </c>
-      <c r="AS28" s="86" t="str">
+      <c r="AS28" s="84" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT28" s="87" t="str">
+      <c r="AT28" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AU28" s="87" t="str">
+      <c r="AU28" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AV28" s="87" t="str">
+      <c r="AV28" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AW28" s="87" t="str">
+      <c r="AW28" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AX28" s="87" t="str">
+      <c r="AX28" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AY28" s="87" t="str">
+      <c r="AY28" s="85" t="str">
         <f>IF(Y28="","",IF(I28=0,0,1+2*Y28))</f>
         <v/>
       </c>
-      <c r="AZ28" s="87" t="str">
+      <c r="AZ28" s="85" t="str">
         <f>IF(Z28="","",IF(J28=0,0,1+2*Z28))</f>
         <v/>
       </c>
-      <c r="BA28" s="87" t="str">
+      <c r="BA28" s="85" t="str">
         <f>IF(AA28="","",IF(K28=0,0,1+2*AA28))</f>
         <v/>
       </c>
-      <c r="BB28" s="87" t="str">
+      <c r="BB28" s="85" t="str">
         <f>IF(AB28="","",IF(L28=0,0,1+2*AB28))</f>
         <v/>
       </c>
-      <c r="BC28" s="87" t="s">
+      <c r="BC28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD28" s="88" t="str">
+      <c r="BD28" s="86" t="str">
         <f>IF(AD28="","",IF(N28=0,0,1+2*AD28))</f>
         <v/>
       </c>
@@ -8566,51 +8603,51 @@
       <c r="AQ29" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AS29" s="89" t="str">
+      <c r="AS29" s="87" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT29" s="90" t="str">
+      <c r="AT29" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AU29" s="90" t="str">
+      <c r="AU29" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AV29" s="90" t="str">
+      <c r="AV29" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AW29" s="90" t="str">
+      <c r="AW29" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AX29" s="90" t="str">
+      <c r="AX29" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AY29" s="90" t="str">
+      <c r="AY29" s="88" t="str">
         <f>IF(Y29="","",IF(I29=0,0,1+2*Y29))</f>
         <v/>
       </c>
-      <c r="AZ29" s="90" t="str">
+      <c r="AZ29" s="88" t="str">
         <f>IF(Z29="","",IF(J29=0,0,1+2*Z29))</f>
         <v/>
       </c>
-      <c r="BA29" s="90" t="str">
+      <c r="BA29" s="88" t="str">
         <f>IF(AA29="","",IF(K29=0,0,1+2*AA29))</f>
         <v/>
       </c>
-      <c r="BB29" s="90" t="str">
+      <c r="BB29" s="88" t="str">
         <f>IF(AB29="","",IF(L29=0,0,1+2*AB29))</f>
         <v/>
       </c>
-      <c r="BC29" s="90" t="str">
+      <c r="BC29" s="88" t="str">
         <f>IF(AC29="","",IF(M29=0,0,1+2*AC29))</f>
         <v/>
       </c>
-      <c r="BD29" s="91" t="s">
+      <c r="BD29" s="89" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8713,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>37</v>
@@ -8747,7 +8784,7 @@
       </c>
       <c r="P32" s="36">
         <f>IF(Info!B$10=0,0,SUM(S32:AD32))+IF(Info!B$11=0,0,2*SUM(S32:AD32))+IF(Info!B$12=0,0,SUM(AS32:BD32))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="36">
         <f t="shared" ref="Q32:Q43" si="12">COUNT(C32:N32)</f>
@@ -8848,50 +8885,50 @@
         <f>N32+C43</f>
         <v>0</v>
       </c>
-      <c r="AS32" s="83" t="s">
+      <c r="AS32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AT32" s="84">
+      <c r="AT32" s="82">
         <f t="shared" ref="AT32:BD37" si="13">IF(T32="","",IF(D32=0,0,1+2*T32))</f>
         <v>3</v>
       </c>
-      <c r="AU32" s="84">
+      <c r="AU32" s="82">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AV32" s="84">
+      <c r="AV32" s="82">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AW32" s="84">
+      <c r="AW32" s="82">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AX32" s="84">
+      <c r="AX32" s="82">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AY32" s="84">
+      <c r="AY32" s="82">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AZ32" s="84" t="str">
+      <c r="AZ32" s="82" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BA32" s="84" t="str">
+      <c r="BA32" s="82" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BB32" s="84" t="str">
+      <c r="BB32" s="82" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BC32" s="84" t="str">
+      <c r="BC32" s="82" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BD32" s="85" t="str">
+      <c r="BD32" s="83" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8901,7 +8938,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C33" s="34">
         <v>1</v>
@@ -8935,7 +8972,7 @@
       </c>
       <c r="P33" s="36">
         <f>IF(Info!B$10=0,0,SUM(S33:AD33))+IF(Info!B$11=0,0,2*SUM(S33:AD33))+IF(Info!B$12=0,0,SUM(AS33:BD33))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="36">
         <f t="shared" si="12"/>
@@ -9036,50 +9073,50 @@
         <f>N33+D43</f>
         <v>0</v>
       </c>
-      <c r="AS33" s="86">
+      <c r="AS33" s="84">
         <f t="shared" ref="AS33:AX43" si="14">IF(S33="","",IF(C33=0,0,1+2*S33))</f>
         <v>1</v>
       </c>
-      <c r="AT33" s="87" t="s">
+      <c r="AT33" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AU33" s="87">
+      <c r="AU33" s="85">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AV33" s="87">
+      <c r="AV33" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AW33" s="87">
+      <c r="AW33" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AX33" s="87">
+      <c r="AX33" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AY33" s="87">
+      <c r="AY33" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AZ33" s="87" t="str">
+      <c r="AZ33" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BA33" s="87" t="str">
+      <c r="BA33" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BB33" s="87" t="str">
+      <c r="BB33" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BC33" s="87" t="str">
+      <c r="BC33" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BD33" s="88" t="str">
+      <c r="BD33" s="86" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9089,7 +9126,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" s="34">
         <v>2</v>
@@ -9123,7 +9160,7 @@
       </c>
       <c r="P34" s="36">
         <f>IF(Info!B$10=0,0,SUM(S34:AD34))+IF(Info!B$11=0,0,2*SUM(S34:AD34))+IF(Info!B$12=0,0,SUM(AS34:BD34))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="36">
         <f t="shared" si="12"/>
@@ -9224,50 +9261,50 @@
         <f>N34+E43</f>
         <v>0</v>
       </c>
-      <c r="AS34" s="86">
+      <c r="AS34" s="84">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AT34" s="87">
+      <c r="AT34" s="85">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AU34" s="87" t="s">
+      <c r="AU34" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AV34" s="87">
+      <c r="AV34" s="85">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AW34" s="87">
+      <c r="AW34" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AX34" s="87">
+      <c r="AX34" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AY34" s="87">
+      <c r="AY34" s="85">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ34" s="87" t="str">
+      <c r="AZ34" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BA34" s="87" t="str">
+      <c r="BA34" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BB34" s="87" t="str">
+      <c r="BB34" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BC34" s="87" t="str">
+      <c r="BC34" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BD34" s="88" t="str">
+      <c r="BD34" s="86" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9277,7 +9314,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C35" s="34">
         <v>2</v>
@@ -9311,7 +9348,7 @@
       </c>
       <c r="P35" s="36">
         <f>IF(Info!B$10=0,0,SUM(S35:AD35))+IF(Info!B$11=0,0,2*SUM(S35:AD35))+IF(Info!B$12=0,0,SUM(AS35:BD35))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="36">
         <f t="shared" si="12"/>
@@ -9412,50 +9449,50 @@
         <f>N35+F43</f>
         <v>0</v>
       </c>
-      <c r="AS35" s="86">
+      <c r="AS35" s="84">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AT35" s="87">
+      <c r="AT35" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AU35" s="87">
+      <c r="AU35" s="85">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AV35" s="87" t="s">
+      <c r="AV35" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AW35" s="87">
+      <c r="AW35" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AX35" s="87">
+      <c r="AX35" s="85">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AY35" s="87">
+      <c r="AY35" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AZ35" s="87" t="str">
+      <c r="AZ35" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BA35" s="87" t="str">
+      <c r="BA35" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BB35" s="87" t="str">
+      <c r="BB35" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BC35" s="87" t="str">
+      <c r="BC35" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BD35" s="88" t="str">
+      <c r="BD35" s="86" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9465,7 +9502,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" s="34">
         <v>1</v>
@@ -9499,7 +9536,7 @@
       </c>
       <c r="P36" s="36">
         <f>IF(Info!B$10=0,0,SUM(S36:AD36))+IF(Info!B$11=0,0,2*SUM(S36:AD36))+IF(Info!B$12=0,0,SUM(AS36:BD36))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="36">
         <f t="shared" si="12"/>
@@ -9600,50 +9637,50 @@
         <f>N36+G43</f>
         <v>0</v>
       </c>
-      <c r="AS36" s="86">
+      <c r="AS36" s="84">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AT36" s="87">
+      <c r="AT36" s="85">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AU36" s="87">
+      <c r="AU36" s="85">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AV36" s="87">
+      <c r="AV36" s="85">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AW36" s="87" t="s">
+      <c r="AW36" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AX36" s="87">
+      <c r="AX36" s="85">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AY36" s="87">
+      <c r="AY36" s="85">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ36" s="87" t="str">
+      <c r="AZ36" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BA36" s="87" t="str">
+      <c r="BA36" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BB36" s="87" t="str">
+      <c r="BB36" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BC36" s="87" t="str">
+      <c r="BC36" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BD36" s="88" t="str">
+      <c r="BD36" s="86" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9653,7 +9690,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C37" s="34">
         <v>0</v>
@@ -9687,7 +9724,7 @@
       </c>
       <c r="P37" s="36">
         <f>IF(Info!B$10=0,0,SUM(S37:AD37))+IF(Info!B$11=0,0,2*SUM(S37:AD37))+IF(Info!B$12=0,0,SUM(AS37:BD37))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="36">
         <f t="shared" si="12"/>
@@ -9788,50 +9825,50 @@
         <f>N37+H43</f>
         <v>0</v>
       </c>
-      <c r="AS37" s="86">
+      <c r="AS37" s="84">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AT37" s="87">
+      <c r="AT37" s="85">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AU37" s="87">
+      <c r="AU37" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AV37" s="87">
+      <c r="AV37" s="85">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AW37" s="87">
+      <c r="AW37" s="85">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AX37" s="87" t="s">
+      <c r="AX37" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AY37" s="87">
+      <c r="AY37" s="85">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AZ37" s="87" t="str">
+      <c r="AZ37" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BA37" s="87" t="str">
+      <c r="BA37" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BB37" s="87" t="str">
+      <c r="BB37" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BC37" s="87" t="str">
+      <c r="BC37" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BD37" s="88" t="str">
+      <c r="BD37" s="86" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9841,7 +9878,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="34">
         <v>1</v>
@@ -9875,7 +9912,7 @@
       </c>
       <c r="P38" s="36">
         <f>IF(Info!B$10=0,0,SUM(S38:AD38))+IF(Info!B$11=0,0,2*SUM(S38:AD38))+IF(Info!B$12=0,0,SUM(AS38:BD38))</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="36">
         <f t="shared" si="12"/>
@@ -9976,50 +10013,50 @@
         <f>N38+I43</f>
         <v>0</v>
       </c>
-      <c r="AS38" s="86">
+      <c r="AS38" s="84">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AT38" s="87">
+      <c r="AT38" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AU38" s="87">
+      <c r="AU38" s="85">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AV38" s="87">
+      <c r="AV38" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW38" s="87">
+      <c r="AW38" s="85">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AX38" s="87">
+      <c r="AX38" s="85">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AY38" s="87" t="s">
+      <c r="AY38" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AZ38" s="87" t="str">
+      <c r="AZ38" s="85" t="str">
         <f>IF(Z38="","",IF(J38=0,0,1+2*Z38))</f>
         <v/>
       </c>
-      <c r="BA38" s="87" t="str">
+      <c r="BA38" s="85" t="str">
         <f>IF(AA38="","",IF(K38=0,0,1+2*AA38))</f>
         <v/>
       </c>
-      <c r="BB38" s="87" t="str">
+      <c r="BB38" s="85" t="str">
         <f>IF(AB38="","",IF(L38=0,0,1+2*AB38))</f>
         <v/>
       </c>
-      <c r="BC38" s="87" t="str">
+      <c r="BC38" s="85" t="str">
         <f>IF(AC38="","",IF(M38=0,0,1+2*AC38))</f>
         <v/>
       </c>
-      <c r="BD38" s="88" t="str">
+      <c r="BD38" s="86" t="str">
         <f>IF(AD38="","",IF(N38=0,0,1+2*AD38))</f>
         <v/>
       </c>
@@ -10150,50 +10187,50 @@
         <f>N39+J43</f>
         <v>0</v>
       </c>
-      <c r="AS39" s="86" t="str">
+      <c r="AS39" s="84" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AT39" s="87" t="str">
+      <c r="AT39" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AU39" s="87" t="str">
+      <c r="AU39" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AV39" s="87" t="str">
+      <c r="AV39" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AW39" s="87" t="str">
+      <c r="AW39" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AX39" s="87" t="str">
+      <c r="AX39" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AY39" s="87" t="str">
+      <c r="AY39" s="85" t="str">
         <f>IF(Y39="","",IF(I39=0,0,1+2*Y39))</f>
         <v/>
       </c>
-      <c r="AZ39" s="87" t="s">
+      <c r="AZ39" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BA39" s="87" t="str">
+      <c r="BA39" s="85" t="str">
         <f>IF(AA39="","",IF(K39=0,0,1+2*AA39))</f>
         <v/>
       </c>
-      <c r="BB39" s="87" t="str">
+      <c r="BB39" s="85" t="str">
         <f>IF(AB39="","",IF(L39=0,0,1+2*AB39))</f>
         <v/>
       </c>
-      <c r="BC39" s="87" t="str">
+      <c r="BC39" s="85" t="str">
         <f>IF(AC39="","",IF(M39=0,0,1+2*AC39))</f>
         <v/>
       </c>
-      <c r="BD39" s="88" t="str">
+      <c r="BD39" s="86" t="str">
         <f>IF(AD39="","",IF(N39=0,0,1+2*AD39))</f>
         <v/>
       </c>
@@ -10324,50 +10361,50 @@
         <f>N40+K43</f>
         <v>0</v>
       </c>
-      <c r="AS40" s="86" t="str">
+      <c r="AS40" s="84" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AT40" s="87" t="str">
+      <c r="AT40" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AU40" s="87" t="str">
+      <c r="AU40" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AV40" s="87" t="str">
+      <c r="AV40" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AW40" s="87" t="str">
+      <c r="AW40" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AX40" s="87" t="str">
+      <c r="AX40" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AY40" s="87" t="str">
+      <c r="AY40" s="85" t="str">
         <f>IF(Y40="","",IF(I40=0,0,1+2*Y40))</f>
         <v/>
       </c>
-      <c r="AZ40" s="87" t="str">
+      <c r="AZ40" s="85" t="str">
         <f>IF(Z40="","",IF(J40=0,0,1+2*Z40))</f>
         <v/>
       </c>
-      <c r="BA40" s="87" t="s">
+      <c r="BA40" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BB40" s="87" t="str">
+      <c r="BB40" s="85" t="str">
         <f>IF(AB40="","",IF(L40=0,0,1+2*AB40))</f>
         <v/>
       </c>
-      <c r="BC40" s="87" t="str">
+      <c r="BC40" s="85" t="str">
         <f>IF(AC40="","",IF(M40=0,0,1+2*AC40))</f>
         <v/>
       </c>
-      <c r="BD40" s="88" t="str">
+      <c r="BD40" s="86" t="str">
         <f>IF(AD40="","",IF(N40=0,0,1+2*AD40))</f>
         <v/>
       </c>
@@ -10498,50 +10535,50 @@
         <f>N41+L43</f>
         <v>0</v>
       </c>
-      <c r="AS41" s="86" t="str">
+      <c r="AS41" s="84" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AT41" s="87" t="str">
+      <c r="AT41" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AU41" s="87" t="str">
+      <c r="AU41" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AV41" s="87" t="str">
+      <c r="AV41" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AW41" s="87" t="str">
+      <c r="AW41" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AX41" s="87" t="str">
+      <c r="AX41" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AY41" s="87" t="str">
+      <c r="AY41" s="85" t="str">
         <f>IF(Y41="","",IF(I41=0,0,1+2*Y41))</f>
         <v/>
       </c>
-      <c r="AZ41" s="87" t="str">
+      <c r="AZ41" s="85" t="str">
         <f>IF(Z41="","",IF(J41=0,0,1+2*Z41))</f>
         <v/>
       </c>
-      <c r="BA41" s="87" t="str">
+      <c r="BA41" s="85" t="str">
         <f>IF(AA41="","",IF(K41=0,0,1+2*AA41))</f>
         <v/>
       </c>
-      <c r="BB41" s="87" t="s">
+      <c r="BB41" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BC41" s="87" t="str">
+      <c r="BC41" s="85" t="str">
         <f>IF(AC41="","",IF(M41=0,0,1+2*AC41))</f>
         <v/>
       </c>
-      <c r="BD41" s="88" t="str">
+      <c r="BD41" s="86" t="str">
         <f>IF(AD41="","",IF(N41=0,0,1+2*AD41))</f>
         <v/>
       </c>
@@ -10672,50 +10709,50 @@
         <f>N42+M43</f>
         <v>0</v>
       </c>
-      <c r="AS42" s="86" t="str">
+      <c r="AS42" s="84" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AT42" s="87" t="str">
+      <c r="AT42" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AU42" s="87" t="str">
+      <c r="AU42" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AV42" s="87" t="str">
+      <c r="AV42" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AW42" s="87" t="str">
+      <c r="AW42" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AX42" s="87" t="str">
+      <c r="AX42" s="85" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AY42" s="87" t="str">
+      <c r="AY42" s="85" t="str">
         <f>IF(Y42="","",IF(I42=0,0,1+2*Y42))</f>
         <v/>
       </c>
-      <c r="AZ42" s="87" t="str">
+      <c r="AZ42" s="85" t="str">
         <f>IF(Z42="","",IF(J42=0,0,1+2*Z42))</f>
         <v/>
       </c>
-      <c r="BA42" s="87" t="str">
+      <c r="BA42" s="85" t="str">
         <f>IF(AA42="","",IF(K42=0,0,1+2*AA42))</f>
         <v/>
       </c>
-      <c r="BB42" s="87" t="str">
+      <c r="BB42" s="85" t="str">
         <f>IF(AB42="","",IF(L42=0,0,1+2*AB42))</f>
         <v/>
       </c>
-      <c r="BC42" s="87" t="s">
+      <c r="BC42" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD42" s="88" t="str">
+      <c r="BD42" s="86" t="str">
         <f>IF(AD42="","",IF(N42=0,0,1+2*AD42))</f>
         <v/>
       </c>
@@ -10846,51 +10883,51 @@
       <c r="AQ43" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AS43" s="89" t="str">
+      <c r="AS43" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AT43" s="90" t="str">
+      <c r="AT43" s="88" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AU43" s="90" t="str">
+      <c r="AU43" s="88" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AV43" s="90" t="str">
+      <c r="AV43" s="88" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AW43" s="90" t="str">
+      <c r="AW43" s="88" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AX43" s="90" t="str">
+      <c r="AX43" s="88" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AY43" s="90" t="str">
+      <c r="AY43" s="88" t="str">
         <f>IF(Y43="","",IF(I43=0,0,1+2*Y43))</f>
         <v/>
       </c>
-      <c r="AZ43" s="90" t="str">
+      <c r="AZ43" s="88" t="str">
         <f>IF(Z43="","",IF(J43=0,0,1+2*Z43))</f>
         <v/>
       </c>
-      <c r="BA43" s="90" t="str">
+      <c r="BA43" s="88" t="str">
         <f>IF(AA43="","",IF(K43=0,0,1+2*AA43))</f>
         <v/>
       </c>
-      <c r="BB43" s="90" t="str">
+      <c r="BB43" s="88" t="str">
         <f>IF(AB43="","",IF(L43=0,0,1+2*AB43))</f>
         <v/>
       </c>
-      <c r="BC43" s="90" t="str">
+      <c r="BC43" s="88" t="str">
         <f>IF(AC43="","",IF(M43=0,0,1+2*AC43))</f>
         <v/>
       </c>
-      <c r="BD43" s="91" t="s">
+      <c r="BD43" s="89" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11114,50 +11151,50 @@
         <f>N46+C57</f>
         <v>0</v>
       </c>
-      <c r="AS46" s="83" t="s">
+      <c r="AS46" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AT46" s="84" t="str">
+      <c r="AT46" s="82" t="str">
         <f t="shared" ref="AT46:BD51" si="18">IF(T46="","",IF(D46=0,0,1+2*T46))</f>
         <v/>
       </c>
-      <c r="AU46" s="84" t="str">
+      <c r="AU46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AV46" s="84" t="str">
+      <c r="AV46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AW46" s="84" t="str">
+      <c r="AW46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AX46" s="84" t="str">
+      <c r="AX46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AY46" s="84" t="str">
+      <c r="AY46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AZ46" s="84" t="str">
+      <c r="AZ46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BA46" s="84" t="str">
+      <c r="BA46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BB46" s="84" t="str">
+      <c r="BB46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BC46" s="84" t="str">
+      <c r="BC46" s="82" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BD46" s="85" t="str">
+      <c r="BD46" s="83" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11288,50 +11325,50 @@
         <f>N47+D57</f>
         <v>0</v>
       </c>
-      <c r="AS47" s="86" t="str">
+      <c r="AS47" s="84" t="str">
         <f t="shared" ref="AS47:AX57" si="19">IF(S47="","",IF(C47=0,0,1+2*S47))</f>
         <v/>
       </c>
-      <c r="AT47" s="87" t="s">
+      <c r="AT47" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AU47" s="87" t="str">
+      <c r="AU47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AV47" s="87" t="str">
+      <c r="AV47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AW47" s="87" t="str">
+      <c r="AW47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AX47" s="87" t="str">
+      <c r="AX47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AY47" s="87" t="str">
+      <c r="AY47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AZ47" s="87" t="str">
+      <c r="AZ47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BA47" s="87" t="str">
+      <c r="BA47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BB47" s="87" t="str">
+      <c r="BB47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BC47" s="87" t="str">
+      <c r="BC47" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BD47" s="88" t="str">
+      <c r="BD47" s="86" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11462,50 +11499,50 @@
         <f>N48+E57</f>
         <v>0</v>
       </c>
-      <c r="AS48" s="86" t="str">
+      <c r="AS48" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT48" s="87" t="str">
+      <c r="AT48" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU48" s="87" t="s">
+      <c r="AU48" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AV48" s="87" t="str">
+      <c r="AV48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AW48" s="87" t="str">
+      <c r="AW48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AX48" s="87" t="str">
+      <c r="AX48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AY48" s="87" t="str">
+      <c r="AY48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AZ48" s="87" t="str">
+      <c r="AZ48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BA48" s="87" t="str">
+      <c r="BA48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BB48" s="87" t="str">
+      <c r="BB48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BC48" s="87" t="str">
+      <c r="BC48" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BD48" s="88" t="str">
+      <c r="BD48" s="86" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11636,50 +11673,50 @@
         <f>N49+F57</f>
         <v>0</v>
       </c>
-      <c r="AS49" s="86" t="str">
+      <c r="AS49" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT49" s="87" t="str">
+      <c r="AT49" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU49" s="87" t="str">
+      <c r="AU49" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV49" s="87" t="s">
+      <c r="AV49" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AW49" s="87" t="str">
+      <c r="AW49" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AX49" s="87" t="str">
+      <c r="AX49" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AY49" s="87" t="str">
+      <c r="AY49" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AZ49" s="87" t="str">
+      <c r="AZ49" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BA49" s="87" t="str">
+      <c r="BA49" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BB49" s="87" t="str">
+      <c r="BB49" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BC49" s="87" t="str">
+      <c r="BC49" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BD49" s="88" t="str">
+      <c r="BD49" s="86" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11810,50 +11847,50 @@
         <f>N50+G57</f>
         <v>0</v>
       </c>
-      <c r="AS50" s="86" t="str">
+      <c r="AS50" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT50" s="87" t="str">
+      <c r="AT50" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU50" s="87" t="str">
+      <c r="AU50" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV50" s="87" t="str">
+      <c r="AV50" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW50" s="87" t="s">
+      <c r="AW50" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AX50" s="87" t="str">
+      <c r="AX50" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AY50" s="87" t="str">
+      <c r="AY50" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AZ50" s="87" t="str">
+      <c r="AZ50" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BA50" s="87" t="str">
+      <c r="BA50" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BB50" s="87" t="str">
+      <c r="BB50" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BC50" s="87" t="str">
+      <c r="BC50" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BD50" s="88" t="str">
+      <c r="BD50" s="86" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11984,50 +12021,50 @@
         <f>N51+H57</f>
         <v>0</v>
       </c>
-      <c r="AS51" s="86" t="str">
+      <c r="AS51" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT51" s="87" t="str">
+      <c r="AT51" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU51" s="87" t="str">
+      <c r="AU51" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV51" s="87" t="str">
+      <c r="AV51" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW51" s="87" t="str">
+      <c r="AW51" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AX51" s="87" t="s">
+      <c r="AX51" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AY51" s="87" t="str">
+      <c r="AY51" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AZ51" s="87" t="str">
+      <c r="AZ51" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BA51" s="87" t="str">
+      <c r="BA51" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BB51" s="87" t="str">
+      <c r="BB51" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BC51" s="87" t="str">
+      <c r="BC51" s="85" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BD51" s="88" t="str">
+      <c r="BD51" s="86" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12158,50 +12195,50 @@
         <f>N52+I57</f>
         <v>0</v>
       </c>
-      <c r="AS52" s="86" t="str">
+      <c r="AS52" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT52" s="87" t="str">
+      <c r="AT52" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU52" s="87" t="str">
+      <c r="AU52" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV52" s="87" t="str">
+      <c r="AV52" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW52" s="87" t="str">
+      <c r="AW52" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AX52" s="87" t="str">
+      <c r="AX52" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AY52" s="87" t="s">
+      <c r="AY52" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AZ52" s="87" t="str">
+      <c r="AZ52" s="85" t="str">
         <f>IF(Z52="","",IF(J52=0,0,1+2*Z52))</f>
         <v/>
       </c>
-      <c r="BA52" s="87" t="str">
+      <c r="BA52" s="85" t="str">
         <f>IF(AA52="","",IF(K52=0,0,1+2*AA52))</f>
         <v/>
       </c>
-      <c r="BB52" s="87" t="str">
+      <c r="BB52" s="85" t="str">
         <f>IF(AB52="","",IF(L52=0,0,1+2*AB52))</f>
         <v/>
       </c>
-      <c r="BC52" s="87" t="str">
+      <c r="BC52" s="85" t="str">
         <f>IF(AC52="","",IF(M52=0,0,1+2*AC52))</f>
         <v/>
       </c>
-      <c r="BD52" s="88" t="str">
+      <c r="BD52" s="86" t="str">
         <f>IF(AD52="","",IF(N52=0,0,1+2*AD52))</f>
         <v/>
       </c>
@@ -12332,50 +12369,50 @@
         <f>N53+J57</f>
         <v>0</v>
       </c>
-      <c r="AS53" s="86" t="str">
+      <c r="AS53" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT53" s="87" t="str">
+      <c r="AT53" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU53" s="87" t="str">
+      <c r="AU53" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV53" s="87" t="str">
+      <c r="AV53" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW53" s="87" t="str">
+      <c r="AW53" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AX53" s="87" t="str">
+      <c r="AX53" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AY53" s="87" t="str">
+      <c r="AY53" s="85" t="str">
         <f>IF(Y53="","",IF(I53=0,0,1+2*Y53))</f>
         <v/>
       </c>
-      <c r="AZ53" s="87" t="s">
+      <c r="AZ53" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BA53" s="87" t="str">
+      <c r="BA53" s="85" t="str">
         <f>IF(AA53="","",IF(K53=0,0,1+2*AA53))</f>
         <v/>
       </c>
-      <c r="BB53" s="87" t="str">
+      <c r="BB53" s="85" t="str">
         <f>IF(AB53="","",IF(L53=0,0,1+2*AB53))</f>
         <v/>
       </c>
-      <c r="BC53" s="87" t="str">
+      <c r="BC53" s="85" t="str">
         <f>IF(AC53="","",IF(M53=0,0,1+2*AC53))</f>
         <v/>
       </c>
-      <c r="BD53" s="88" t="str">
+      <c r="BD53" s="86" t="str">
         <f>IF(AD53="","",IF(N53=0,0,1+2*AD53))</f>
         <v/>
       </c>
@@ -12506,50 +12543,50 @@
         <f>N54+K57</f>
         <v>0</v>
       </c>
-      <c r="AS54" s="86" t="str">
+      <c r="AS54" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT54" s="87" t="str">
+      <c r="AT54" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU54" s="87" t="str">
+      <c r="AU54" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV54" s="87" t="str">
+      <c r="AV54" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW54" s="87" t="str">
+      <c r="AW54" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AX54" s="87" t="str">
+      <c r="AX54" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AY54" s="87" t="str">
+      <c r="AY54" s="85" t="str">
         <f>IF(Y54="","",IF(I54=0,0,1+2*Y54))</f>
         <v/>
       </c>
-      <c r="AZ54" s="87" t="str">
+      <c r="AZ54" s="85" t="str">
         <f>IF(Z54="","",IF(J54=0,0,1+2*Z54))</f>
         <v/>
       </c>
-      <c r="BA54" s="87" t="s">
+      <c r="BA54" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BB54" s="87" t="str">
+      <c r="BB54" s="85" t="str">
         <f>IF(AB54="","",IF(L54=0,0,1+2*AB54))</f>
         <v/>
       </c>
-      <c r="BC54" s="87" t="str">
+      <c r="BC54" s="85" t="str">
         <f>IF(AC54="","",IF(M54=0,0,1+2*AC54))</f>
         <v/>
       </c>
-      <c r="BD54" s="88" t="str">
+      <c r="BD54" s="86" t="str">
         <f>IF(AD54="","",IF(N54=0,0,1+2*AD54))</f>
         <v/>
       </c>
@@ -12680,50 +12717,50 @@
         <f>N55+L57</f>
         <v>0</v>
       </c>
-      <c r="AS55" s="86" t="str">
+      <c r="AS55" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT55" s="87" t="str">
+      <c r="AT55" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU55" s="87" t="str">
+      <c r="AU55" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV55" s="87" t="str">
+      <c r="AV55" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW55" s="87" t="str">
+      <c r="AW55" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AX55" s="87" t="str">
+      <c r="AX55" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AY55" s="87" t="str">
+      <c r="AY55" s="85" t="str">
         <f>IF(Y55="","",IF(I55=0,0,1+2*Y55))</f>
         <v/>
       </c>
-      <c r="AZ55" s="87" t="str">
+      <c r="AZ55" s="85" t="str">
         <f>IF(Z55="","",IF(J55=0,0,1+2*Z55))</f>
         <v/>
       </c>
-      <c r="BA55" s="87" t="str">
+      <c r="BA55" s="85" t="str">
         <f>IF(AA55="","",IF(K55=0,0,1+2*AA55))</f>
         <v/>
       </c>
-      <c r="BB55" s="87" t="s">
+      <c r="BB55" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BC55" s="87" t="str">
+      <c r="BC55" s="85" t="str">
         <f>IF(AC55="","",IF(M55=0,0,1+2*AC55))</f>
         <v/>
       </c>
-      <c r="BD55" s="88" t="str">
+      <c r="BD55" s="86" t="str">
         <f>IF(AD55="","",IF(N55=0,0,1+2*AD55))</f>
         <v/>
       </c>
@@ -12854,50 +12891,50 @@
         <f>N56+M57</f>
         <v>0</v>
       </c>
-      <c r="AS56" s="86" t="str">
+      <c r="AS56" s="84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT56" s="87" t="str">
+      <c r="AT56" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU56" s="87" t="str">
+      <c r="AU56" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV56" s="87" t="str">
+      <c r="AV56" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW56" s="87" t="str">
+      <c r="AW56" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AX56" s="87" t="str">
+      <c r="AX56" s="85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AY56" s="87" t="str">
+      <c r="AY56" s="85" t="str">
         <f>IF(Y56="","",IF(I56=0,0,1+2*Y56))</f>
         <v/>
       </c>
-      <c r="AZ56" s="87" t="str">
+      <c r="AZ56" s="85" t="str">
         <f>IF(Z56="","",IF(J56=0,0,1+2*Z56))</f>
         <v/>
       </c>
-      <c r="BA56" s="87" t="str">
+      <c r="BA56" s="85" t="str">
         <f>IF(AA56="","",IF(K56=0,0,1+2*AA56))</f>
         <v/>
       </c>
-      <c r="BB56" s="87" t="str">
+      <c r="BB56" s="85" t="str">
         <f>IF(AB56="","",IF(L56=0,0,1+2*AB56))</f>
         <v/>
       </c>
-      <c r="BC56" s="87" t="s">
+      <c r="BC56" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD56" s="88" t="str">
+      <c r="BD56" s="86" t="str">
         <f>IF(AD56="","",IF(N56=0,0,1+2*AD56))</f>
         <v/>
       </c>
@@ -13028,51 +13065,51 @@
       <c r="AQ57" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AS57" s="89" t="str">
+      <c r="AS57" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT57" s="90" t="str">
+      <c r="AT57" s="88" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AU57" s="90" t="str">
+      <c r="AU57" s="88" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV57" s="90" t="str">
+      <c r="AV57" s="88" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AW57" s="90" t="str">
+      <c r="AW57" s="88" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AX57" s="90" t="str">
+      <c r="AX57" s="88" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AY57" s="90" t="str">
+      <c r="AY57" s="88" t="str">
         <f>IF(Y57="","",IF(I57=0,0,1+2*Y57))</f>
         <v/>
       </c>
-      <c r="AZ57" s="90" t="str">
+      <c r="AZ57" s="88" t="str">
         <f>IF(Z57="","",IF(J57=0,0,1+2*Z57))</f>
         <v/>
       </c>
-      <c r="BA57" s="90" t="str">
+      <c r="BA57" s="88" t="str">
         <f>IF(AA57="","",IF(K57=0,0,1+2*AA57))</f>
         <v/>
       </c>
-      <c r="BB57" s="90" t="str">
+      <c r="BB57" s="88" t="str">
         <f>IF(AB57="","",IF(L57=0,0,1+2*AB57))</f>
         <v/>
       </c>
-      <c r="BC57" s="90" t="str">
+      <c r="BC57" s="88" t="str">
         <f>IF(AC57="","",IF(M57=0,0,1+2*AC57))</f>
         <v/>
       </c>
-      <c r="BD57" s="91" t="s">
+      <c r="BD57" s="89" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16246,7 +16283,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16256,7 +16293,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16493,7 +16530,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16503,7 +16540,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16684,7 +16721,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16694,7 +16731,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17048,7 +17085,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17058,7 +17095,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17295,7 +17332,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17305,7 +17342,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17486,7 +17523,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -17496,7 +17533,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17850,7 +17887,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17860,7 +17897,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -18097,7 +18134,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18107,7 +18144,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18288,7 +18325,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18298,7 +18335,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -18652,7 +18689,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18662,7 +18699,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -18899,7 +18936,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -19044,7 +19081,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -19054,7 +19091,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -19367,9 +19404,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19386,7 +19425,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:23" ht="21">
       <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
@@ -19397,18 +19436,18 @@
         <v>31767</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:23" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:23">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -19418,11 +19457,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:23">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -19452,7 +19491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:23">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -19480,7 +19519,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:23">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -19508,7 +19547,7 @@
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:23">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -19536,7 +19575,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:23">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -19564,7 +19603,7 @@
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:23">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -19592,7 +19631,7 @@
       </c>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -19620,7 +19659,7 @@
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -19644,18 +19683,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:23" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:23">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -19665,11 +19704,19 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -19698,8 +19745,16 @@
       <c r="J14" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -19726,8 +19781,16 @@
         <v>115</v>
       </c>
       <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -19754,8 +19817,22 @@
         <v>116</v>
       </c>
       <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="L16" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -19782,19 +19859,33 @@
         <v>117</v>
       </c>
       <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1">
+      <c r="L17" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19">
-        <v>76333</v>
+        <v>24210</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="D18" s="18">
-        <v>1848</v>
+        <v>1796</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -19810,22 +19901,36 @@
         <v>118</v>
       </c>
       <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L18" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1860.25</v>
+        <v>1847.25</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="64">
+      <c r="E19" s="93">
         <v>3</v>
       </c>
-      <c r="F19" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="64">
+      <c r="F19" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="93">
         <v>1</v>
       </c>
       <c r="H19" s="3"/>
@@ -19835,24 +19940,42 @@
       </c>
       <c r="J19" s="3"/>
       <c r="L19" s="63" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="M19" s="63"/>
       <c r="N19" s="63"/>
       <c r="O19" s="63"/>
-    </row>
-    <row r="20" spans="1:15" ht="19.5" thickBot="1">
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+    </row>
+    <row r="20" spans="1:23" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="L20" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -19863,8 +19986,18 @@
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="L21" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -19893,8 +20026,18 @@
       <c r="J22" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="L22" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -19911,8 +20054,18 @@
       <c r="H23" s="19"/>
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="L23" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -19929,8 +20082,18 @@
       <c r="H24" s="19"/>
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="L24" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -19948,7 +20111,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -19966,7 +20129,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -19986,12 +20149,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19.5" thickBot="1">
+    <row r="28" spans="1:23" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:23">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -20007,7 +20170,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -20037,7 +20200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:23">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -20053,7 +20216,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:23">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -20170,7 +20333,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20180,7 +20343,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -20220,7 +20383,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -20248,7 +20411,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -20276,7 +20439,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -20304,7 +20467,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -20332,7 +20495,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -20360,7 +20523,7 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="12">
@@ -20417,7 +20580,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20427,7 +20590,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -20467,7 +20630,7 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -20495,7 +20658,7 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -20523,7 +20686,7 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -20551,7 +20714,7 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -20608,7 +20771,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20618,7 +20781,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -20676,7 +20839,7 @@
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J23" s="18"/>
     </row>
@@ -20704,7 +20867,7 @@
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J24" s="18"/>
     </row>
@@ -20732,7 +20895,7 @@
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="18"/>
     </row>
@@ -20760,7 +20923,7 @@
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J26" s="18"/>
     </row>
@@ -20972,7 +21135,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20982,7 +21145,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -21040,7 +21203,7 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -21068,7 +21231,7 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -21096,7 +21259,7 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -21124,7 +21287,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -21152,7 +21315,7 @@
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" s="18"/>
     </row>
@@ -21180,7 +21343,7 @@
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -21219,7 +21382,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -21229,7 +21392,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -21287,7 +21450,7 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -21315,7 +21478,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -21343,7 +21506,7 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J17" s="18"/>
     </row>
@@ -21371,7 +21534,7 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -21410,7 +21573,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -21420,7 +21583,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -21462,7 +21625,7 @@
         <v>22373</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="10">
@@ -21492,7 +21655,7 @@
         <v>7331</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="10">
@@ -21522,7 +21685,7 @@
         <v>6998</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="10">
@@ -21538,7 +21701,7 @@
         <v>97453</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J25" s="18">
         <v>1556</v>
@@ -21552,7 +21715,7 @@
         <v>22624</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="12">
@@ -21782,7 +21945,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -21792,7 +21955,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -21832,7 +21995,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -21860,7 +22023,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -21888,7 +22051,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -21916,7 +22079,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -21944,7 +22107,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -21972,7 +22135,7 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="12">

--- a/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
+++ b/_data/ni/ni8687/individueel_eindstand_dworp_123_8687.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="220">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -675,6 +675,18 @@
   <si>
     <t>5?</t>
   </si>
+  <si>
+    <t>dat ik na iedere ronde bijwerkte. Dat rooster deed dus ook dienst als kladwerk voor mijn nota's (volgens eindrangschikking) waar ik tegenwoordig steevast uit put.</t>
+  </si>
+  <si>
+    <t>eddy op 18 aug '17:  toen ik jouw kopieën uit le pion f klasseerde bij de andere officiële archiefstukken, vond ik het rooster (volgens lotingsnummers)</t>
+  </si>
+  <si>
+    <t>Zo is het tenminste duidelijk dat Tibechecs geen fout maakte.</t>
+  </si>
+  <si>
+    <t>In dat bewuste kladwerk is de uitslag 4-0 met rode bic aangepast naar 3-1 wegens opstellingsfout.</t>
+  </si>
 </sst>
 </file>
 
@@ -780,7 +792,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,6 +886,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,7 +1352,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1587,6 +1605,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19404,10 +19424,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19832,7 +19852,7 @@
       <c r="V16" s="63"/>
       <c r="W16" s="63"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:27">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -19874,7 +19894,7 @@
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -19916,7 +19936,7 @@
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -19954,7 +19974,7 @@
       <c r="V19" s="63"/>
       <c r="W19" s="63"/>
     </row>
-    <row r="20" spans="1:23" ht="19.5" thickBot="1">
+    <row r="20" spans="1:27" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
@@ -19969,7 +19989,7 @@
       <c r="R20" s="62"/>
       <c r="S20" s="62"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:27">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -19997,7 +20017,7 @@
       <c r="R21" s="62"/>
       <c r="S21" s="62"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:27">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -20037,7 +20057,7 @@
       <c r="R22" s="62"/>
       <c r="S22" s="62"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:27">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -20065,7 +20085,7 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:27">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -20093,7 +20113,7 @@
       <c r="R24" s="62"/>
       <c r="S24" s="62"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:27">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -20110,8 +20130,26 @@
       <c r="H25" s="19"/>
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="L25" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -20128,8 +20166,26 @@
       <c r="H26" s="19"/>
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L26" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+    </row>
+    <row r="27" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -20148,13 +20204,49 @@
         <v/>
       </c>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="19.5" thickBot="1">
+      <c r="L27" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+    </row>
+    <row r="28" spans="1:27" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="L28" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -20170,7 +20262,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:27">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -20200,7 +20292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:27">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -20216,7 +20308,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:27">
       <c r="A32" s="5">
         <v>2</v>
       </c>
